--- a/기획/요구사항 명세서.xlsx
+++ b/기획/요구사항 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\student\teamproject\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03E67FC-C8F8-40B9-81C4-560670819F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E0C2CD-138F-42B7-B57D-EA41C1BC945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3A277D0-1097-435D-BBD3-12724C5C6153}"/>
+    <workbookView xWindow="1245" yWindow="930" windowWidth="21600" windowHeight="12060" xr2:uid="{C3A277D0-1097-435D-BBD3-12724C5C6153}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -111,14 +111,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>미반영</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 버전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -204,6 +196,46 @@
   </si>
   <si>
     <t>학생</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>출결 관리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 현황 화면은 중앙 왼쪽에 달력 형식으로 배치되며, 각 날짜별로 조퇴, 외출, 결석, 휴가 등의 정보가 표시된다. 동일 날짜에 여러 건이 등록된 경우에는 "외 n건" 형식으로 표시되며, 사용자는 원하는 날짜를 클릭하여 출결 정보를 등록할 수 있다. 달력은 단위 기간을 기준으로 표시된다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>노은효</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0302</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 현황 달력의 위에는 현재 차수와 그 단위 기간을 나타내는 텍스트가 중앙 정렬되어 있으며 드롭다운 메뉴로 구성되어 있어 사용자가 편하게 차수를 선택할 수 있다. 그 왼쪽에는 본인이 수강하는/수강했던 강의가 표시되며 마찬가지로 드롭다운 메뉴로 선택하여 출석 현황을 확인할 수 있다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0303</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0304</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면의 중앙 오른쪽에 출결 현황을 확인하고 등록할 수 있는 구역이 존재한다. 기본적으로 금일 날짜가 선택되어 있으며, 사용자가 달력에서 클릭한 날짜에 따라 내용이 변화한다. 출결 변동 사항이 있을 경우 펼쳐서 세부 사항을 확인하거나 수정할 수 있는 블록 형식으로 표시되며 가장 아래에는 출결 변동 사항을 추가로 등록할 수 있는 블록이 존재한다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>출결 사항을 수정, 삭제하거나 추가로 등록하는 블록이다. 출결 현황 구역의 블록을 클릭하면 펼쳐지는 형식이다. 1. 출결 변동 사항의 종류, 2. 출결 변동의 원인, 3. 출석 인정 사유에 해당되는지 이 3가지를 입력 가능하며 출석 인정 사유와 필요 서류를 새 창에서 확인할 수 있는 링크 텍스트가 존재한다.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +244,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -413,7 +445,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,10 +475,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,6 +489,321 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -493,321 +840,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -822,17 +854,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EDA6948-A971-489B-A658-04A8E04D6CAB}" name="표2" displayName="표2" ref="A1:H30" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EDA6948-A971-489B-A658-04A8E04D6CAB}" name="표2" displayName="표2" ref="A1:H30" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H30" xr:uid="{8EDA6948-A971-489B-A658-04A8E04D6CAB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D3B6755D-88FE-4E90-9C7A-756FC4E4A70C}" name="RQ-ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F9FEF6AC-16B7-4EF6-9C02-B48369591FA2}" name="화면명" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{EBF7FC2E-D91E-4597-8F45-4708B338AF66}" name="요구사항명" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{4F99BC5D-EE25-4020-8CC7-06E3AC1FF790}" name="요구사항 내용" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{602E599A-B327-4F1D-B5AB-1C706388308D}" name="날짜" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{1E504A4D-7C75-415E-BC9F-B75E4E2B4E81}" name="작성자" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F82C8717-B0D8-490E-824E-4ADEA43DEAB5}" name="진행사항" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2CD47042-FF37-451E-99C4-72293EB2B7C4}" name="버전명" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D3B6755D-88FE-4E90-9C7A-756FC4E4A70C}" name="RQ-ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F9FEF6AC-16B7-4EF6-9C02-B48369591FA2}" name="화면명" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{EBF7FC2E-D91E-4597-8F45-4708B338AF66}" name="요구사항명" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4F99BC5D-EE25-4020-8CC7-06E3AC1FF790}" name="요구사항 내용" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{602E599A-B327-4F1D-B5AB-1C706388308D}" name="날짜" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{1E504A4D-7C75-415E-BC9F-B75E4E2B4E81}" name="작성자" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{F82C8717-B0D8-490E-824E-4ADEA43DEAB5}" name="진행사항" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{2CD47042-FF37-451E-99C4-72293EB2B7C4}" name="버전명" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1137,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A4E9F7-09E8-4684-ACDA-A11F4E7F9ADF}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4">
         <v>45615</v>
@@ -1219,12 +1251,8 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1234,10 +1262,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4">
         <v>45615</v>
@@ -1245,16 +1273,12 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1280,7 +1304,7 @@
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1289,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4">
         <v>45615</v>
@@ -1297,16 +1321,12 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>9</v>
@@ -1315,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="14">
         <v>45615</v>
@@ -1332,16 +1352,16 @@
     </row>
     <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="14">
         <v>45615</v>
@@ -1349,25 +1369,21 @@
       <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="14">
         <v>45615</v>
@@ -1384,16 +1400,16 @@
     </row>
     <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="14">
         <v>45615</v>
@@ -1401,25 +1417,21 @@
       <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="14">
         <v>45615</v>
@@ -1434,47 +1446,91 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="14">
+        <v>45616</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11"/>
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="14">
+        <v>45616</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
+    <row r="14" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="14">
+        <v>45616</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="14">
+        <v>45616</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="13"/>
     </row>

--- a/기획/요구사항 명세서.xlsx
+++ b/기획/요구사항 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\student\teamproject\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7BA9A2-91AA-4B6A-BD09-8F0F52C5EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFE4DDD-147D-4591-A182-B6B2713D4DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3A277D0-1097-435D-BBD3-12724C5C6153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="179">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -588,10 +588,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>화면의 중앙 아래에 수강 중인 강좌 대신 '매니저 계정입니다' 라는 텍스트가 표시된다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-0511</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -601,6 +597,139 @@
   </si>
   <si>
     <t>강좌 관리의 자세히 보기 버튼을 통해 나타나는 모달 창에서 수강 신청한 학생들의 목록과 가입 승인/거절 버튼이 표시된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노은효</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0513</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 강좌의 수강생이나 전체 수강생을 대상으로 공지사항을 작성할 수 있다. 제목과 내용을 입력받는 구역이 존재한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0514</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0515</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0516</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면의 중앙 아래에 가입 신청을 보낸 선생, 매니저 계정의 계정 정보와 이름 목록이 표시된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 중앙에 작성자, 제출 현황, 미리보기 상태를 볼 수 있는 화면이 존재하고, 위에는 강좌명을 선택할 수 있는 드롭다운 메뉴와 함께 몇 주차인지 선택할 수 있는 버튼이 존재한다. 각 강좌와 주차를 선택하면 단위개월의 시작일과 종료일이 표시된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0517</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 문의' 라는 소제목으로 작성자명, 강좌명, 작성일, 답변 여부를 확인할 수 있는 게시글 목록이 표시된다. 답변이 되지 않았다면 '답변하기' 버튼이 활성화 된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변하기 버튼을 통해 기존 문의사항에 답변을 작성할 수 있다. 제목 없이 내용만 존재하는 형태이며 이 답변은 기존 문의 작성자나 해당 강좌의 강사, 매니저만 확인할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0518</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0519</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0520</t>
+  </si>
+  <si>
+    <t>RQ-0521</t>
+  </si>
+  <si>
+    <t>RQ-0522</t>
+  </si>
+  <si>
+    <t>RQ-0523</t>
+  </si>
+  <si>
+    <t>RQ-0601</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총관리자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면의 중앙 아래에 가입 신청을 보낸 선생, 매니저 계정의 계정 정보와 이름 목록이 표시된다. 가입 승인과 거절 버튼으로 승인 여부를 선택할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0602</t>
+  </si>
+  <si>
+    <t>RQ-0321</t>
+  </si>
+  <si>
+    <t>대시보드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙 기준 좌측 상단에 정보가 표시된다. 사용자명, 금일 날짜, 수강중인 강좌명과 주차, 로그아웃 버튼이 표시된다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0322</t>
+  </si>
+  <si>
+    <t>RQ-0323</t>
+  </si>
+  <si>
+    <t>중앙 기준 좌측 하단에 공지사항 목록이 표시된다. 탭을 이용해서 전체 대상 공지와 강좌 대상 공지를 오갈 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙 기준 우측에 달력이 표시된다. 달력에는 ▲, X 표시로 부분 결석이나 결석 여부가 표시되며, 클릭하여 요약된 정보를 확인할 수 있다. 달력의 우측 상단에 결석 횟수가 표시된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙 기준 좌측 상단에 정보가 표시된다. 사용자명, 금일 날짜, 수업중인 강좌명과 주차, 로그아웃 버튼이 표시된다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙 기준 우측에 금일 출결 현황이 표시된다. 전체, 출석, 지각, 조퇴, 결석자의 수가 표시되며 출결 등록 버튼이나 상세출석조회 버튼을 클릭하여 각 메뉴로 이동할 수 있다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0415</t>
+  </si>
+  <si>
+    <t>RQ-0416</t>
+  </si>
+  <si>
+    <t>RQ-0417</t>
+  </si>
+  <si>
+    <t>중앙 기준 우측에 처리되지 않은 문의사항과 휴가 신청서의 목록이 표시된다. 탭을 이용해서 문의사항 목록과 휴가 신청서 목록을 오갈 수 있다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -829,17 +958,374 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -853,6 +1339,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -890,370 +1383,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1268,19 +1397,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EDA6948-A971-489B-A658-04A8E04D6CAB}" name="표2" displayName="표2" ref="B1:K73" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="B1:K73" xr:uid="{8EDA6948-A971-489B-A658-04A8E04D6CAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EDA6948-A971-489B-A658-04A8E04D6CAB}" name="표2" displayName="표2" ref="B1:K80" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B1:K80" xr:uid="{8EDA6948-A971-489B-A658-04A8E04D6CAB}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D3B6755D-88FE-4E90-9C7A-756FC4E4A70C}" name="RQ-ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{F9FEF6AC-16B7-4EF6-9C02-B48369591FA2}" name="화면명" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EBF7FC2E-D91E-4597-8F45-4708B338AF66}" name="요구사항명" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{4F99BC5D-EE25-4020-8CC7-06E3AC1FF790}" name="요구사항 내용" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{602E599A-B327-4F1D-B5AB-1C706388308D}" name="작성일" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{7A869015-12B0-40FF-9FA1-D56C43990073}" name="완료일" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1E504A4D-7C75-415E-BC9F-B75E4E2B4E81}" name="작성자" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{1C17DAD8-6C29-481E-8528-52116BA29D2C}" name="작업자" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F82C8717-B0D8-490E-824E-4ADEA43DEAB5}" name="진행사항" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{2CD47042-FF37-451E-99C4-72293EB2B7C4}" name="버전명" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D3B6755D-88FE-4E90-9C7A-756FC4E4A70C}" name="RQ-ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F9FEF6AC-16B7-4EF6-9C02-B48369591FA2}" name="화면명" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EBF7FC2E-D91E-4597-8F45-4708B338AF66}" name="요구사항명" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4F99BC5D-EE25-4020-8CC7-06E3AC1FF790}" name="요구사항 내용" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{602E599A-B327-4F1D-B5AB-1C706388308D}" name="작성일" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{7A869015-12B0-40FF-9FA1-D56C43990073}" name="완료일" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1E504A4D-7C75-415E-BC9F-B75E4E2B4E81}" name="작성자" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{1C17DAD8-6C29-481E-8528-52116BA29D2C}" name="작업자" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{F82C8717-B0D8-490E-824E-4ADEA43DEAB5}" name="진행사항" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{2CD47042-FF37-451E-99C4-72293EB2B7C4}" name="버전명" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1583,11 +1712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A4E9F7-09E8-4684-ACDA-A11F4E7F9ADF}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1603,7 +1732,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
+      <c r="A1" s="16"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1765,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1790,7 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1686,7 +1815,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1840,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1865,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +1890,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1786,7 +1915,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1811,7 +1940,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1836,7 +1965,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1861,7 +1990,7 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
@@ -1885,35 +2014,23 @@
       <c r="J11" s="8"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="11">
-        <v>45616</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>39</v>
@@ -1922,7 +2039,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="11">
         <v>45616</v>
@@ -1935,10 +2052,10 @@
       <c r="J13" s="8"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="54" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>39</v>
@@ -1947,7 +2064,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14" s="11">
         <v>45616</v>
@@ -1961,18 +2078,18 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="54" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="11">
         <v>45616</v>
@@ -1985,35 +2102,35 @@
       <c r="J15" s="8"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F16" s="11">
         <v>45616</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>53</v>
@@ -2022,23 +2139,23 @@
         <v>54</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17" s="11">
         <v>45616</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>53</v>
@@ -2047,7 +2164,7 @@
         <v>54</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" s="11">
         <v>45616</v>
@@ -2061,18 +2178,18 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F19" s="11">
         <v>45616</v>
@@ -2085,10 +2202,10 @@
       <c r="J19" s="8"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>39</v>
@@ -2097,57 +2214,57 @@
         <v>62</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="F20" s="11">
         <v>45616</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F21" s="11">
         <v>45616</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="11">
         <v>45616</v>
@@ -2161,18 +2278,18 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F23" s="11">
         <v>45616</v>
@@ -2186,9 +2303,9 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>39</v>
@@ -2197,57 +2314,57 @@
         <v>71</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" s="11">
         <v>45616</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" s="11">
         <v>45616</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F26" s="11">
         <v>45616</v>
@@ -2261,9 +2378,9 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>39</v>
@@ -2272,7 +2389,7 @@
         <v>78</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" s="11">
         <v>45616</v>
@@ -2286,9 +2403,9 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>39</v>
@@ -2297,7 +2414,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" s="11">
         <v>45616</v>
@@ -2310,19 +2427,19 @@
       <c r="J28" s="8"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+    <row r="29" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
       <c r="B29" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="F29" s="11">
         <v>45616</v>
@@ -2336,96 +2453,96 @@
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="11">
+        <v>45616</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="3">
-        <v>45616</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>90</v>
+      <c r="E31" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="F31" s="3">
         <v>45616</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+    <row r="32" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3">
         <v>45616</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="1"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F33" s="3">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="1" t="s">
@@ -2436,21 +2553,21 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="F34" s="3">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="1" t="s">
@@ -2460,119 +2577,107 @@
       <c r="J34" s="1"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+    <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>103</v>
+        <v>167</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="F35" s="3">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="1"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="3">
-        <v>45616</v>
-      </c>
+      <c r="A36" s="16"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="8"/>
       <c r="J36" s="1"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+    <row r="37" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>105</v>
+      <c r="D37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F37" s="3">
         <v>45616</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="1"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+    <row r="38" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>72</v>
+      <c r="D38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F38" s="3">
         <v>45616</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="1"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+    <row r="39" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>74</v>
+      <c r="D39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F39" s="3">
         <v>45616</v>
@@ -2586,18 +2691,18 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>71</v>
+      <c r="D40" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F40" s="3">
         <v>45616</v>
@@ -2610,19 +2715,19 @@
       <c r="J40" s="1"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
       <c r="B41" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>111</v>
+      <c r="D41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="F41" s="3">
         <v>45616</v>
@@ -2635,19 +2740,19 @@
       <c r="J41" s="1"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F42" s="3">
         <v>45616</v>
@@ -2660,94 +2765,94 @@
       <c r="J42" s="1"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F43" s="3">
         <v>45616</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="1"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F44" s="3">
         <v>45616</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="1"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+    <row r="45" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>118</v>
+      <c r="D45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="F45" s="3">
         <v>45616</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="1"/>
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F46" s="3">
         <v>45616</v>
@@ -2760,19 +2865,19 @@
       <c r="J46" s="1"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+    <row r="47" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
       <c r="B47" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F47" s="3">
         <v>45616</v>
@@ -2785,19 +2890,19 @@
       <c r="J47" s="1"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+    <row r="48" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="F48" s="3">
         <v>45616</v>
@@ -2810,44 +2915,44 @@
       <c r="J48" s="1"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
       <c r="B49" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>126</v>
+        <v>85</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="F49" s="3">
         <v>45616</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="1"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
+    <row r="50" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>128</v>
+        <v>93</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="F50" s="3">
         <v>45616</v>
@@ -2861,18 +2966,18 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>131</v>
+        <v>93</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F51" s="3">
         <v>45616</v>
@@ -2885,22 +2990,22 @@
       <c r="J51" s="1"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+    <row r="52" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="F52" s="3">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="1" t="s">
@@ -2910,94 +3015,82 @@
       <c r="J52" s="1"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+    <row r="53" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>134</v>
+        <v>93</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F53" s="3">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="1"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
+    <row r="54" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="F54" s="3">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="1"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="3">
-        <v>45616</v>
-      </c>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H55" s="1"/>
       <c r="I55" s="8"/>
       <c r="J55" s="1"/>
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="F56" s="3">
         <v>45616</v>
@@ -3010,19 +3103,19 @@
       <c r="J56" s="1"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
+    <row r="57" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
       <c r="B57" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F57" s="3">
         <v>45616</v>
@@ -3035,19 +3128,19 @@
       <c r="J57" s="1"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+    <row r="58" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F58" s="3">
         <v>45616</v>
@@ -3061,184 +3154,532 @@
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="3"/>
+      <c r="B59" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45616</v>
+      </c>
       <c r="G59" s="11"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I59" s="8"/>
       <c r="J59" s="1"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="3"/>
+    <row r="60" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45616</v>
+      </c>
       <c r="G60" s="11"/>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I60" s="8"/>
       <c r="J60" s="1"/>
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="3"/>
+      <c r="B61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45616</v>
+      </c>
       <c r="G61" s="11"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I61" s="8"/>
       <c r="J61" s="1"/>
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="3"/>
+      <c r="B62" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45616</v>
+      </c>
       <c r="G62" s="11"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="I62" s="8"/>
       <c r="J62" s="1"/>
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="4"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="3"/>
+      <c r="B63" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45616</v>
+      </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="I63" s="8"/>
       <c r="J63" s="1"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="4"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="3"/>
+    <row r="64" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45616</v>
+      </c>
       <c r="G64" s="11"/>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I64" s="8"/>
       <c r="J64" s="1"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="3"/>
+    <row r="65" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45616</v>
+      </c>
       <c r="G65" s="11"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="3"/>
+      <c r="B66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45616</v>
+      </c>
       <c r="G66" s="11"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I66" s="8"/>
       <c r="J66" s="1"/>
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="3"/>
+      <c r="B67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="3">
+        <v>45616</v>
+      </c>
       <c r="G67" s="11"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I67" s="8"/>
       <c r="J67" s="1"/>
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="4"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="3"/>
+      <c r="B68" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45617</v>
+      </c>
       <c r="G68" s="11"/>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="I68" s="8"/>
       <c r="J68" s="1"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="4"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="3"/>
+    <row r="69" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45617</v>
+      </c>
       <c r="G69" s="11"/>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="I69" s="8"/>
       <c r="J69" s="1"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="4"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="3"/>
+    <row r="70" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B70" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="3">
+        <v>45617</v>
+      </c>
       <c r="G70" s="11"/>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="I70" s="8"/>
       <c r="J70" s="1"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="3"/>
+    <row r="71" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="3">
+        <v>45617</v>
+      </c>
       <c r="G71" s="11"/>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="I71" s="8"/>
       <c r="J71" s="1"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="4"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="3"/>
+    <row r="72" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="3">
+        <v>45617</v>
+      </c>
       <c r="G72" s="11"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="I72" s="8"/>
       <c r="J72" s="1"/>
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="4"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="3"/>
+      <c r="B73" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="3">
+        <v>45617</v>
+      </c>
       <c r="G73" s="11"/>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="I73" s="8"/>
       <c r="J73" s="1"/>
       <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B74" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F74" s="3">
+        <v>45617</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B75" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="3">
+        <v>45617</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45617</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B77" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77" s="3">
+        <v>45617</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B78" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" s="3">
+        <v>45617</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="3">
+        <v>45617</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B80" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="3">
+        <v>45617</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
